--- a/biology/Médecine/Visite_médicale_d'embauche_en_France/Visite_médicale_d'embauche_en_France.xlsx
+++ b/biology/Médecine/Visite_médicale_d'embauche_en_France/Visite_médicale_d'embauche_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Visite_m%C3%A9dicale_d%27embauche_en_France</t>
+          <t>Visite_médicale_d'embauche_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La visite médicale d'embauche était une formalité légale de droit du travail français.
-Le décret n°2008-244 du 7 mars 2008[1] ordonne que « Le salarié bénéficie d'un examen médical avant l'embauche ou au plus tard avant l'expiration de la période d'essai par le médecin du travail ». Ce texte a été codifié à l'article R 4624-10 du code du travail.
-Depuis le décret n°2016-1908 du 27 décembre 2016[2], pris par application de la loi Macron, le texte de l'article R 4624-10 du code du travail est rédigé ainsi : « Tout travailleur bénéficie d'une visite d'information et de prévention, réalisée par l'un des professionnels de santé mentionnés au premier alinéa de l'article L. 4624-1 dans un délai qui n'excède pas trois mois à compter de la prise effective du poste de travail. »
+Le décret n°2008-244 du 7 mars 2008 ordonne que « Le salarié bénéficie d'un examen médical avant l'embauche ou au plus tard avant l'expiration de la période d'essai par le médecin du travail ». Ce texte a été codifié à l'article R 4624-10 du code du travail.
+Depuis le décret n°2016-1908 du 27 décembre 2016, pris par application de la loi Macron, le texte de l'article R 4624-10 du code du travail est rédigé ainsi : « Tout travailleur bénéficie d'une visite d'information et de prévention, réalisée par l'un des professionnels de santé mentionnés au premier alinéa de l'article L. 4624-1 dans un délai qui n'excède pas trois mois à compter de la prise effective du poste de travail. »
 La visite médicale d'embauche est donc remplacée par une simple visite d'information et de prévention, le nouveau texte est moins protecteur des droits.[réf. nécessaire]
 </t>
         </is>
